--- a/biology/Histoire de la zoologie et de la botanique/L.H.Bailey/L.H.Bailey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/L.H.Bailey/L.H.Bailey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liberty Hyde Bailey, est un botaniste américain, cofondateur de l'American Society for Horticultural Science (en), né le 15 mars 1858 à South Haven dans le Michigan et mort le 15 décembre 1954 à Ithaca.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bailey naît et grandit dans une plantation d'arbres fruitiers. Il entre en 1877 au Michigan State Agricultural College où il étudie auprès de William James Beal, qui fut lui-même étudiant d’Asa Gray. Il obtient en 1882 un Bachelor of Sciences et en 1886 un Master of Sciences. Il passe deux années (1882-1884) à l’herbier de l'université Harvard comme assistant d'Asa Gray. Il se marie avec Annette Smith en 1883, union dont naîtront deux filles ; la seconde, Ethel Zoe deviendra botaniste comme son père et sera la première conservatrice de l'herbier Bailey à l'université Cornell.
 Il retourne à l'école d'agriculture du Michigan en 1885 où il enseigne l'horticulture et le paysagisme. En 1888, Bailey devient professeur d'horticulture à l'université Cornell où il demeure jusqu'en 1903, année où il participe à la fondation de la Société américaine d'horticulture et dont il devient le premier président. La même année, il devient doyen et directeur de l'école d'État d'agriculture de Cornell. Il tient aussi la chaire d'agriculture. Il fonde en 1907 le département de recherche expérimentale en biologie végétale. Il reste à Cornell jusqu’en 1913.
@@ -547,7 +561,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1885 : Talks afield about plants and the science of plants (Houghton, Mifflin and company, Boston, New York) – exemplaire numérique sur American Librairies.
 1889 : The horticulturist's rule-book; a compendium of useful information for fruit-growers, truck-gardeners, florists and others. Completed to the close of the year 1889 (Garden, New York) – exemplaire numérique sur American Librairies.
@@ -595,7 +611,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical Dictionary of American and Canadian Naturalists and Environmentalists. Greenwood Press (Westport) : xix + 937 p.  (ISBN 0-313-23047-1)</t>
         </is>
